--- a/cycle/daily_limit_up_market/20250107.xlsx
+++ b/cycle/daily_limit_up_market/20250107.xlsx
@@ -533,34 +533,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>603269</t>
+          <t>300807</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>海鸥股份</t>
+          <t>天迈科技</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.00862789154053</v>
+        <v>19.9934024810791</v>
       </c>
       <c r="F2" t="n">
-        <v>12.75</v>
+        <v>36.37</v>
       </c>
       <c r="G2" t="n">
-        <v>60573593</v>
+        <v>67857037</v>
       </c>
       <c r="H2" t="n">
-        <v>2811846456.75</v>
+        <v>1784093579.93</v>
       </c>
       <c r="I2" t="n">
-        <v>2811846456.75</v>
+        <v>2474599779.19</v>
       </c>
       <c r="J2" t="n">
-        <v>2.154228210449219</v>
+        <v>3.803446054458618</v>
       </c>
       <c r="K2" t="n">
-        <v>152240482</v>
+        <v>248252818</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -577,15 +577,15 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>计算机设</t>
         </is>
       </c>
     </row>
@@ -598,34 +598,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>002379</t>
+          <t>000573</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>宏创控股</t>
+          <t>粤宏远Ａ</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.03344535827637</v>
+        <v>10.07957553863525</v>
       </c>
       <c r="F3" t="n">
-        <v>9.869999999999999</v>
+        <v>4.15</v>
       </c>
       <c r="G3" t="n">
-        <v>44611907</v>
+        <v>353699488</v>
       </c>
       <c r="H3" t="n">
-        <v>11216008942.11</v>
+        <v>2626803998.85</v>
       </c>
       <c r="I3" t="n">
-        <v>11216009011.2</v>
+        <v>2648864523.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0.397752046585083</v>
+        <v>13.4721565246582</v>
       </c>
       <c r="K3" t="n">
-        <v>302765704</v>
+        <v>117949021</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -634,23 +634,23 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>092500</t>
+          <t>093415</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>有色金属</t>
+          <t>房地产开</t>
         </is>
       </c>
     </row>
@@ -663,34 +663,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>300807</t>
+          <t>002620</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>天迈科技</t>
+          <t>瑞和股份</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.9934024810791</v>
+        <v>10.05917167663574</v>
       </c>
       <c r="F4" t="n">
-        <v>36.37</v>
+        <v>3.72</v>
       </c>
       <c r="G4" t="n">
-        <v>67857037</v>
+        <v>154059899</v>
       </c>
       <c r="H4" t="n">
-        <v>1784093579.93</v>
+        <v>1172133613.32</v>
       </c>
       <c r="I4" t="n">
-        <v>2474599779.19</v>
+        <v>1404277680</v>
       </c>
       <c r="J4" t="n">
-        <v>3.803446054458618</v>
+        <v>14.76131534576416</v>
       </c>
       <c r="K4" t="n">
-        <v>248252818</v>
+        <v>206067387</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>092500</t>
+          <t>095327</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -707,7 +707,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>6/3</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -715,7 +715,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>计算机设</t>
+          <t>装修装饰</t>
         </is>
       </c>
     </row>
@@ -728,34 +728,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>002177</t>
+          <t>000533</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>御银股份</t>
+          <t>顺钠股份</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.975062370300293</v>
+        <v>10.04431343078613</v>
       </c>
       <c r="F5" t="n">
-        <v>4.41</v>
+        <v>7.45</v>
       </c>
       <c r="G5" t="n">
-        <v>64753794</v>
+        <v>1562824848</v>
       </c>
       <c r="H5" t="n">
-        <v>2951216602.74</v>
+        <v>5102522880</v>
       </c>
       <c r="I5" t="n">
-        <v>3356853615.36</v>
+        <v>5146579200</v>
       </c>
       <c r="J5" t="n">
-        <v>2.194139003753662</v>
+        <v>33.36599731445312</v>
       </c>
       <c r="K5" t="n">
-        <v>83668284</v>
+        <v>56666935</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -764,15 +764,15 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>092500</t>
+          <t>105542</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>8/7</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -780,7 +780,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>计算机设</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -793,34 +793,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>000573</t>
+          <t>002379</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>宏创控股</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.07957553863525</v>
+        <v>10.03344535827637</v>
       </c>
       <c r="F6" t="n">
-        <v>4.15</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>353699488</v>
+        <v>44611907</v>
       </c>
       <c r="H6" t="n">
-        <v>2626803998.85</v>
+        <v>11216008942.11</v>
       </c>
       <c r="I6" t="n">
-        <v>2648864523.2</v>
+        <v>11216009011.2</v>
       </c>
       <c r="J6" t="n">
-        <v>13.4721565246582</v>
+        <v>0.397752046585083</v>
       </c>
       <c r="K6" t="n">
-        <v>117949021</v>
+        <v>302765704</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -829,23 +829,23 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>093415</t>
+          <t>092500</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>房地产开</t>
+          <t>有色金属</t>
         </is>
       </c>
     </row>
@@ -858,34 +858,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>002620</t>
+          <t>603269</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>瑞和股份</t>
+          <t>海鸥股份</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10.05917167663574</v>
+        <v>10.00862789154053</v>
       </c>
       <c r="F7" t="n">
-        <v>3.72</v>
+        <v>12.75</v>
       </c>
       <c r="G7" t="n">
-        <v>154059899</v>
+        <v>60573593</v>
       </c>
       <c r="H7" t="n">
-        <v>1172133613.32</v>
+        <v>2811846456.75</v>
       </c>
       <c r="I7" t="n">
-        <v>1404277680</v>
+        <v>2811846456.75</v>
       </c>
       <c r="J7" t="n">
-        <v>14.76131534576416</v>
+        <v>2.154228210449219</v>
       </c>
       <c r="K7" t="n">
-        <v>206067387</v>
+        <v>152240482</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>095327</t>
+          <t>092500</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -902,15 +902,15 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>6/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>装修装饰</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -923,34 +923,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>000533</t>
+          <t>002177</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>顺钠股份</t>
+          <t>御银股份</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.04431343078613</v>
+        <v>9.975062370300293</v>
       </c>
       <c r="F8" t="n">
-        <v>7.45</v>
+        <v>4.41</v>
       </c>
       <c r="G8" t="n">
-        <v>1562824848</v>
+        <v>64753794</v>
       </c>
       <c r="H8" t="n">
-        <v>5102522880</v>
+        <v>2951216602.74</v>
       </c>
       <c r="I8" t="n">
-        <v>5146579200</v>
+        <v>3356853615.36</v>
       </c>
       <c r="J8" t="n">
-        <v>33.36599731445312</v>
+        <v>2.194139003753662</v>
       </c>
       <c r="K8" t="n">
-        <v>56666935</v>
+        <v>83668284</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -959,15 +959,15 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>105542</t>
+          <t>092500</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>8/7</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>计算机设</t>
         </is>
       </c>
     </row>
@@ -7433,57 +7433,57 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>002603</t>
+          <t>603215</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>以岭药业</t>
+          <t>比依股份</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-2.64976954460144</v>
+        <v>-9.977924346923828</v>
       </c>
       <c r="F15" t="n">
-        <v>16.9</v>
+        <v>20.39</v>
       </c>
       <c r="G15" t="n">
-        <v>19.1</v>
+        <v>24.92</v>
       </c>
       <c r="H15" t="n">
-        <v>1254159360</v>
+        <v>965245536</v>
       </c>
       <c r="I15" t="n">
-        <v>23259630330.3</v>
+        <v>1448353286.7</v>
       </c>
       <c r="J15" t="n">
-        <v>28234920854.4</v>
+        <v>3843686255.61</v>
       </c>
       <c r="K15" t="n">
-        <v>5.396975994110107</v>
+        <v>64.55438995361328</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>5.99078369140625</v>
+        <v>14.17218589782715</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>142342</t>
+          <t>140602</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>7/4</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>中药</t>
+          <t>家电行业</t>
         </is>
       </c>
     </row>
@@ -7496,44 +7496,44 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>603063</t>
+          <t>600721</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>禾望电气</t>
+          <t>百花医药</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9.995241165161133</v>
+        <v>-4.285714626312256</v>
       </c>
       <c r="F16" t="n">
-        <v>23.11</v>
+        <v>6.7</v>
       </c>
       <c r="G16" t="n">
-        <v>23.11</v>
+        <v>7.7</v>
       </c>
       <c r="H16" t="n">
-        <v>1022859456</v>
+        <v>246727628</v>
       </c>
       <c r="I16" t="n">
-        <v>10260963153.19</v>
+        <v>2573018654.5</v>
       </c>
       <c r="J16" t="n">
-        <v>10260963130.08</v>
+        <v>2573018688</v>
       </c>
       <c r="K16" t="n">
-        <v>10.01980018615723</v>
+        <v>9.581055641174316</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>4.331271171569824</v>
+        <v>5.285714149475098</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>093002</t>
+          <t>094547</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -7541,12 +7541,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>风电设备</t>
+          <t>医疗服务</t>
         </is>
       </c>
     </row>
@@ -7622,44 +7622,44 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>600983</t>
+          <t>002603</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>惠而浦</t>
+          <t>以岭药业</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10.01064968109131</v>
+        <v>-2.64976954460144</v>
       </c>
       <c r="F18" t="n">
-        <v>10.33</v>
+        <v>16.9</v>
       </c>
       <c r="G18" t="n">
-        <v>10.33</v>
+        <v>19.1</v>
       </c>
       <c r="H18" t="n">
-        <v>293770016</v>
+        <v>1254159360</v>
       </c>
       <c r="I18" t="n">
-        <v>7917314870</v>
+        <v>23259630330.3</v>
       </c>
       <c r="J18" t="n">
-        <v>7917314952.64</v>
+        <v>28234920854.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.756279945373535</v>
+        <v>5.396975994110107</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>4.898828506469727</v>
+        <v>5.99078369140625</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>092502</t>
+          <t>142342</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -7667,12 +7667,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>家电行业</t>
+          <t>中药</t>
         </is>
       </c>
     </row>
@@ -7685,57 +7685,57 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>605199</t>
+          <t>300158</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>葫芦娃</t>
+          <t>振东制药</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.663201689720154</v>
+        <v>-2.404809474945068</v>
       </c>
       <c r="F19" t="n">
-        <v>19.56</v>
+        <v>4.87</v>
       </c>
       <c r="G19" t="n">
-        <v>21.16</v>
+        <v>5.99</v>
       </c>
       <c r="H19" t="n">
-        <v>846241536</v>
+        <v>471361216</v>
       </c>
       <c r="I19" t="n">
-        <v>7826127189.12</v>
+        <v>4878240561.09</v>
       </c>
       <c r="J19" t="n">
-        <v>7826127189.12</v>
+        <v>4895907231.2</v>
       </c>
       <c r="K19" t="n">
-        <v>11.42295455932617</v>
+        <v>9.725457191467285</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>18.71101760864258</v>
+        <v>7.81563138961792</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>105627</t>
+          <t>145418</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>3/2</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>中药</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -7748,44 +7748,44 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>002364</t>
+          <t>000597</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>中恒电气</t>
+          <t>东北制药</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.00788021087646</v>
+        <v>-1.964285731315613</v>
       </c>
       <c r="F20" t="n">
-        <v>13.96</v>
+        <v>5.49</v>
       </c>
       <c r="G20" t="n">
-        <v>13.96</v>
+        <v>6.16</v>
       </c>
       <c r="H20" t="n">
-        <v>1507849344</v>
+        <v>624607424</v>
       </c>
       <c r="I20" t="n">
-        <v>7791137912.6</v>
+        <v>7723692078.12</v>
       </c>
       <c r="J20" t="n">
-        <v>7867366841.6</v>
+        <v>7845776919.360001</v>
       </c>
       <c r="K20" t="n">
-        <v>19.66123199462891</v>
+        <v>8.089045524597168</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>8.11662769317627</v>
+        <v>5.892857074737549</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>143342</t>
+          <t>134145</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -7793,12 +7793,12 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>11/6</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>电源设备</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -7811,44 +7811,44 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>000597</t>
+          <t>688022</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>东北制药</t>
+          <t>瀚川智能</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1.964285731315613</v>
+        <v>-1.544715404510498</v>
       </c>
       <c r="F21" t="n">
-        <v>5.49</v>
+        <v>12.11</v>
       </c>
       <c r="G21" t="n">
-        <v>6.16</v>
+        <v>14.76</v>
       </c>
       <c r="H21" t="n">
-        <v>624607424</v>
+        <v>113544012</v>
       </c>
       <c r="I21" t="n">
-        <v>7723692078.12</v>
+        <v>2129886503.64</v>
       </c>
       <c r="J21" t="n">
-        <v>7845776919.360001</v>
+        <v>2129886503.64</v>
       </c>
       <c r="K21" t="n">
-        <v>8.089045524597168</v>
+        <v>5.396230697631836</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>5.892857074737549</v>
+        <v>5.691057205200195</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>134145</t>
+          <t>103228</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -7874,57 +7874,57 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>002733</t>
+          <t>002109</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>雄韬股份</t>
+          <t>兴化股份</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9.994154930114746</v>
+        <v>-0.9063444137573242</v>
       </c>
       <c r="F22" t="n">
-        <v>18.82</v>
+        <v>3.28</v>
       </c>
       <c r="G22" t="n">
-        <v>18.82</v>
+        <v>3.64</v>
       </c>
       <c r="H22" t="n">
-        <v>716509968</v>
+        <v>61456445</v>
       </c>
       <c r="I22" t="n">
-        <v>6941997124.38</v>
+        <v>4186165111.28</v>
       </c>
       <c r="J22" t="n">
-        <v>7230924643.84</v>
+        <v>4186165127.68</v>
       </c>
       <c r="K22" t="n">
-        <v>10.64470195770264</v>
+        <v>1.48630964756012</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>10.98772621154785</v>
+        <v>4.229607582092285</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>144154</t>
+          <t>145039</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>电池</t>
+          <t>化学原料</t>
         </is>
       </c>
     </row>
@@ -7937,44 +7937,44 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>603050</t>
+          <t>600222</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>科林电气</t>
+          <t>太龙药业</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5.766525745391846</v>
+        <v>-0.7339449524879456</v>
       </c>
       <c r="F23" t="n">
-        <v>22.56</v>
+        <v>5.41</v>
       </c>
       <c r="G23" t="n">
-        <v>23.46</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>175311442</v>
+        <v>289736768</v>
       </c>
       <c r="I23" t="n">
-        <v>6147892558.08</v>
+        <v>3104724791.03</v>
       </c>
       <c r="J23" t="n">
-        <v>6147892738.559999</v>
+        <v>3104724818.08</v>
       </c>
       <c r="K23" t="n">
-        <v>2.921125173568726</v>
+        <v>9.365939140319824</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>7.735583782196045</v>
+        <v>5.321101188659668</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>143854</t>
+          <t>131732</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>中药</t>
         </is>
       </c>
     </row>
@@ -8000,44 +8000,44 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>600868</t>
+          <t>002370</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>梅雁吉祥</t>
+          <t>亚太药业</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.296875</v>
+        <v>1.265822768211365</v>
       </c>
       <c r="F24" t="n">
-        <v>2.67</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
-        <v>2.82</v>
+        <v>3.48</v>
       </c>
       <c r="H24" t="n">
-        <v>567182352</v>
+        <v>302397632</v>
       </c>
       <c r="I24" t="n">
-        <v>5068056972.93</v>
+        <v>2331475795.2</v>
       </c>
       <c r="J24" t="n">
-        <v>5068056954.24</v>
+        <v>2331475814.4</v>
       </c>
       <c r="K24" t="n">
-        <v>11.22033309936523</v>
+        <v>12.90172004699707</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>7.03125</v>
+        <v>7.911392211914062</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>092503</t>
+          <t>093812</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>电力行业</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -8063,57 +8063,57 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>000697</t>
+          <t>605199</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>炼石航空</t>
+          <t>葫芦娃</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.585193872451782</v>
+        <v>1.663201689720154</v>
       </c>
       <c r="F25" t="n">
-        <v>8.73</v>
+        <v>19.56</v>
       </c>
       <c r="G25" t="n">
-        <v>9.359999999999999</v>
+        <v>21.16</v>
       </c>
       <c r="H25" t="n">
-        <v>210478055</v>
+        <v>846241536</v>
       </c>
       <c r="I25" t="n">
-        <v>4923631696.05</v>
+        <v>7826127189.12</v>
       </c>
       <c r="J25" t="n">
-        <v>7622170682.400001</v>
+        <v>7826127189.12</v>
       </c>
       <c r="K25" t="n">
-        <v>4.32205867767334</v>
+        <v>11.42295455932617</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>6.110458374023438</v>
+        <v>18.71101760864258</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>093548</t>
+          <t>105627</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>3/2</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>航天航空</t>
+          <t>中药</t>
         </is>
       </c>
     </row>
@@ -8126,44 +8126,44 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>300158</t>
+          <t>000697</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>振东制药</t>
+          <t>炼石航空</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-2.404809474945068</v>
+        <v>2.585193872451782</v>
       </c>
       <c r="F26" t="n">
-        <v>4.87</v>
+        <v>8.73</v>
       </c>
       <c r="G26" t="n">
-        <v>5.99</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>471361216</v>
+        <v>210478055</v>
       </c>
       <c r="I26" t="n">
-        <v>4878240561.09</v>
+        <v>4923631696.05</v>
       </c>
       <c r="J26" t="n">
-        <v>4895907231.2</v>
+        <v>7622170682.400001</v>
       </c>
       <c r="K26" t="n">
-        <v>9.725457191467285</v>
+        <v>4.32205867767334</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>7.81563138961792</v>
+        <v>6.110458374023438</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>145418</t>
+          <t>093548</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>航天航空</t>
         </is>
       </c>
     </row>
@@ -8189,44 +8189,44 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>002346</t>
+          <t>605277</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>柘中股份</t>
+          <t>新亚电子</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>10.03683185577393</v>
+        <v>3.187803268432617</v>
       </c>
       <c r="F27" t="n">
-        <v>11.95</v>
+        <v>14.89</v>
       </c>
       <c r="G27" t="n">
-        <v>11.95</v>
+        <v>15.87</v>
       </c>
       <c r="H27" t="n">
-        <v>137333821</v>
+        <v>531247792</v>
       </c>
       <c r="I27" t="n">
-        <v>4701129450.3</v>
+        <v>4675197474.41</v>
       </c>
       <c r="J27" t="n">
-        <v>5276826316.799999</v>
+        <v>4828786260.96</v>
       </c>
       <c r="K27" t="n">
-        <v>2.922813653945923</v>
+        <v>11.58777904510498</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.565377593040466</v>
+        <v>6.930006980895996</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>094833</t>
+          <t>093509</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -8234,12 +8234,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>消费电子</t>
         </is>
       </c>
     </row>
@@ -8252,44 +8252,44 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>605277</t>
+          <t>600868</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>新亚电子</t>
+          <t>梅雁吉祥</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.187803268432617</v>
+        <v>4.296875</v>
       </c>
       <c r="F28" t="n">
-        <v>14.89</v>
+        <v>2.67</v>
       </c>
       <c r="G28" t="n">
-        <v>15.87</v>
+        <v>2.82</v>
       </c>
       <c r="H28" t="n">
-        <v>531247792</v>
+        <v>567182352</v>
       </c>
       <c r="I28" t="n">
-        <v>4675197474.41</v>
+        <v>5068056972.93</v>
       </c>
       <c r="J28" t="n">
-        <v>4828786260.96</v>
+        <v>5068056954.24</v>
       </c>
       <c r="K28" t="n">
-        <v>11.58777904510498</v>
+        <v>11.22033309936523</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>6.930006980895996</v>
+        <v>7.03125</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>093509</t>
+          <t>092503</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>电力行业</t>
         </is>
       </c>
     </row>
@@ -8315,44 +8315,44 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>002225</t>
+          <t>600191</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>濮耐股份</t>
+          <t>华资实业</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6.226415157318115</v>
+        <v>4.376657485961914</v>
       </c>
       <c r="F29" t="n">
-        <v>5.63</v>
+        <v>7.87</v>
       </c>
       <c r="G29" t="n">
-        <v>5.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>472355344</v>
+        <v>564357488</v>
       </c>
       <c r="I29" t="n">
-        <v>4647813648.95</v>
+        <v>3816414840</v>
       </c>
       <c r="J29" t="n">
-        <v>5688654601.12</v>
+        <v>3816414840</v>
       </c>
       <c r="K29" t="n">
-        <v>10.42141628265381</v>
+        <v>15.0369176864624</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>9.056604385375977</v>
+        <v>11.00795745849609</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>094403</t>
+          <t>094133</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -8360,12 +8360,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>5/3</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>装修建材</t>
+          <t>农牧饲渔</t>
         </is>
       </c>
     </row>
@@ -8378,44 +8378,44 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>002109</t>
+          <t>600173</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>兴化股份</t>
+          <t>卧龙地产</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.9063444137573242</v>
+        <v>5.060241222381592</v>
       </c>
       <c r="F30" t="n">
-        <v>3.28</v>
+        <v>4.36</v>
       </c>
       <c r="G30" t="n">
-        <v>3.64</v>
+        <v>4.57</v>
       </c>
       <c r="H30" t="n">
-        <v>61456445</v>
+        <v>212260958</v>
       </c>
       <c r="I30" t="n">
-        <v>4186165111.28</v>
+        <v>3053814823.84</v>
       </c>
       <c r="J30" t="n">
-        <v>4186165127.68</v>
+        <v>3054207206.4</v>
       </c>
       <c r="K30" t="n">
-        <v>1.48630964756012</v>
+        <v>6.803861618041992</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>4.229607582092285</v>
+        <v>7.710843563079834</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>145039</t>
+          <t>092502</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>化学原料</t>
+          <t>房地产开</t>
         </is>
       </c>
     </row>
@@ -8441,57 +8441,57 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>002184</t>
+          <t>600367</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>海得控制</t>
+          <t>红星发展</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>10.03215503692627</v>
+        <v>5.351170539855957</v>
       </c>
       <c r="F31" t="n">
-        <v>17.11</v>
+        <v>12.6</v>
       </c>
       <c r="G31" t="n">
-        <v>17.11</v>
+        <v>13.16</v>
       </c>
       <c r="H31" t="n">
-        <v>1619153888</v>
+        <v>448402128</v>
       </c>
       <c r="I31" t="n">
-        <v>4107726093.44</v>
+        <v>4056862093.2</v>
       </c>
       <c r="J31" t="n">
-        <v>6021152176.48</v>
+        <v>4298249289.599999</v>
       </c>
       <c r="K31" t="n">
-        <v>40.72768402099609</v>
+        <v>11.2470760345459</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>13.56913185119629</v>
+        <v>7.190635681152344</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>145015</t>
+          <t>102633</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>专用设备</t>
+          <t>化学原料</t>
         </is>
       </c>
     </row>
@@ -8504,44 +8504,44 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>600367</t>
+          <t>603050</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>红星发展</t>
+          <t>科林电气</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5.351170539855957</v>
+        <v>5.766525745391846</v>
       </c>
       <c r="F32" t="n">
-        <v>12.6</v>
+        <v>22.56</v>
       </c>
       <c r="G32" t="n">
-        <v>13.16</v>
+        <v>23.46</v>
       </c>
       <c r="H32" t="n">
-        <v>448402128</v>
+        <v>175311442</v>
       </c>
       <c r="I32" t="n">
-        <v>4056862093.2</v>
+        <v>6147892558.08</v>
       </c>
       <c r="J32" t="n">
-        <v>4298249289.599999</v>
+        <v>6147892738.559999</v>
       </c>
       <c r="K32" t="n">
-        <v>11.2470760345459</v>
+        <v>2.921125173568726</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>7.190635681152344</v>
+        <v>7.735583782196045</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>102633</t>
+          <t>143854</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>化学原料</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -8567,44 +8567,44 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>603815</t>
+          <t>600722</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>交建股份</t>
+          <t>金牛化工</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>9.743590354919434</v>
+        <v>5.973024845123291</v>
       </c>
       <c r="F33" t="n">
-        <v>6.42</v>
+        <v>5.5</v>
       </c>
       <c r="G33" t="n">
-        <v>6.44</v>
+        <v>5.71</v>
       </c>
       <c r="H33" t="n">
-        <v>304776496</v>
+        <v>408599712</v>
       </c>
       <c r="I33" t="n">
-        <v>3973493588.7</v>
+        <v>3741758218</v>
       </c>
       <c r="J33" t="n">
-        <v>3973493620.8</v>
+        <v>3741758240</v>
       </c>
       <c r="K33" t="n">
-        <v>7.782197952270508</v>
+        <v>11.15066146850586</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>8.376069068908691</v>
+        <v>10.40462398529053</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>093242</t>
+          <t>132936</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>工程建设</t>
+          <t>化学原料</t>
         </is>
       </c>
     </row>
@@ -8630,44 +8630,44 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>600191</t>
+          <t>002225</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>华资实业</t>
+          <t>濮耐股份</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4.376657485961914</v>
+        <v>6.226415157318115</v>
       </c>
       <c r="F34" t="n">
-        <v>7.87</v>
+        <v>5.63</v>
       </c>
       <c r="G34" t="n">
-        <v>8.289999999999999</v>
+        <v>5.83</v>
       </c>
       <c r="H34" t="n">
-        <v>564357488</v>
+        <v>472355344</v>
       </c>
       <c r="I34" t="n">
-        <v>3816414840</v>
+        <v>4647813648.95</v>
       </c>
       <c r="J34" t="n">
-        <v>3816414840</v>
+        <v>5688654601.12</v>
       </c>
       <c r="K34" t="n">
-        <v>15.0369176864624</v>
+        <v>10.42141628265381</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>11.00795745849609</v>
+        <v>9.056604385375977</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>094133</t>
+          <t>094403</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -8675,12 +8675,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>农牧饲渔</t>
+          <t>装修建材</t>
         </is>
       </c>
     </row>
@@ -8693,44 +8693,44 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>600722</t>
+          <t>300434</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>金牛化工</t>
+          <t>金石亚药</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.973024845123291</v>
+        <v>6.765327453613281</v>
       </c>
       <c r="F35" t="n">
-        <v>5.5</v>
+        <v>10.1</v>
       </c>
       <c r="G35" t="n">
-        <v>5.71</v>
+        <v>11.35</v>
       </c>
       <c r="H35" t="n">
-        <v>408599712</v>
+        <v>590330512</v>
       </c>
       <c r="I35" t="n">
-        <v>3741758218</v>
+        <v>3455422968.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3741758240</v>
+        <v>4057613107.2</v>
       </c>
       <c r="K35" t="n">
-        <v>11.15066146850586</v>
+        <v>17.2325611114502</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>10.40462398529053</v>
+        <v>8.245243072509766</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>132936</t>
+          <t>100927</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>化学原料</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -8756,44 +8756,44 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>600405</t>
+          <t>603815</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>动力源</t>
+          <t>交建股份</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>9.930313110351562</v>
+        <v>9.743590354919434</v>
       </c>
       <c r="F36" t="n">
-        <v>6.31</v>
+        <v>6.42</v>
       </c>
       <c r="G36" t="n">
-        <v>6.31</v>
+        <v>6.44</v>
       </c>
       <c r="H36" t="n">
-        <v>872374960</v>
+        <v>304776496</v>
       </c>
       <c r="I36" t="n">
-        <v>3491168076.88</v>
+        <v>3973493588.7</v>
       </c>
       <c r="J36" t="n">
-        <v>3866954675.04</v>
+        <v>3973493620.8</v>
       </c>
       <c r="K36" t="n">
-        <v>26.16596031188965</v>
+        <v>7.782197952270508</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>9.756096839904785</v>
+        <v>8.376069068908691</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>133501</t>
+          <t>093242</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -8801,12 +8801,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>电源设备</t>
+          <t>工程建设</t>
         </is>
       </c>
     </row>
@@ -8819,44 +8819,44 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>002418</t>
+          <t>600405</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>康盛股份</t>
+          <t>动力源</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10.07194232940674</v>
+        <v>9.930313110351562</v>
       </c>
       <c r="F37" t="n">
-        <v>3.06</v>
+        <v>6.31</v>
       </c>
       <c r="G37" t="n">
-        <v>3.06</v>
+        <v>6.31</v>
       </c>
       <c r="H37" t="n">
-        <v>403158896</v>
+        <v>872374960</v>
       </c>
       <c r="I37" t="n">
-        <v>3477384000</v>
+        <v>3491168076.88</v>
       </c>
       <c r="J37" t="n">
-        <v>3477384000</v>
+        <v>3866954675.04</v>
       </c>
       <c r="K37" t="n">
-        <v>11.9450740814209</v>
+        <v>26.16596031188965</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>8.273381233215332</v>
+        <v>9.756096839904785</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>093839</t>
+          <t>133501</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -8864,12 +8864,12 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>家电行业</t>
+          <t>电源设备</t>
         </is>
       </c>
     </row>
@@ -8882,44 +8882,44 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>300434</t>
+          <t>603500</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>金石亚药</t>
+          <t>祥和实业</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6.765327453613281</v>
+        <v>9.988649368286133</v>
       </c>
       <c r="F38" t="n">
-        <v>10.1</v>
+        <v>9.69</v>
       </c>
       <c r="G38" t="n">
-        <v>11.35</v>
+        <v>9.69</v>
       </c>
       <c r="H38" t="n">
-        <v>590330512</v>
+        <v>719814080</v>
       </c>
       <c r="I38" t="n">
-        <v>3455422968.6</v>
+        <v>3302316302.04</v>
       </c>
       <c r="J38" t="n">
-        <v>4057613107.2</v>
+        <v>3330911143.2</v>
       </c>
       <c r="K38" t="n">
-        <v>17.2325611114502</v>
+        <v>22.9002742767334</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>8.245243072509766</v>
+        <v>10.78320026397705</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>100927</t>
+          <t>100525</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -8927,12 +8927,12 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>4/3</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>交运设备</t>
         </is>
       </c>
     </row>
@@ -8945,57 +8945,57 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>603500</t>
+          <t>605033</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>祥和实业</t>
+          <t>美邦股份</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>9.988649368286133</v>
+        <v>9.993753433227539</v>
       </c>
       <c r="F39" t="n">
-        <v>9.69</v>
+        <v>17.61</v>
       </c>
       <c r="G39" t="n">
-        <v>9.69</v>
+        <v>17.61</v>
       </c>
       <c r="H39" t="n">
-        <v>719814080</v>
+        <v>241097673</v>
       </c>
       <c r="I39" t="n">
-        <v>3302316302.04</v>
+        <v>2380872000</v>
       </c>
       <c r="J39" t="n">
-        <v>3330911143.2</v>
+        <v>2380872000</v>
       </c>
       <c r="K39" t="n">
-        <v>22.9002742767334</v>
+        <v>10.50115394592285</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>10.78320026397705</v>
+        <v>13.24172306060791</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>100525</t>
+          <t>144211</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/4</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>交运设备</t>
+          <t>农药兽药</t>
         </is>
       </c>
     </row>
@@ -9008,57 +9008,57 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>600222</t>
+          <t>002733</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>太龙药业</t>
+          <t>雄韬股份</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-0.7339449524879456</v>
+        <v>9.994154930114746</v>
       </c>
       <c r="F40" t="n">
-        <v>5.41</v>
+        <v>18.82</v>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>18.82</v>
       </c>
       <c r="H40" t="n">
-        <v>289736768</v>
+        <v>716509968</v>
       </c>
       <c r="I40" t="n">
-        <v>3104724791.03</v>
+        <v>6941997124.38</v>
       </c>
       <c r="J40" t="n">
-        <v>3104724818.08</v>
+        <v>7230924643.84</v>
       </c>
       <c r="K40" t="n">
-        <v>9.365939140319824</v>
+        <v>10.64470195770264</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.321101188659668</v>
+        <v>10.98772621154785</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>131732</t>
+          <t>144154</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>中药</t>
+          <t>电池</t>
         </is>
       </c>
     </row>
@@ -9071,44 +9071,44 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>600173</t>
+          <t>603063</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>卧龙地产</t>
+          <t>禾望电气</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5.060241222381592</v>
+        <v>9.995241165161133</v>
       </c>
       <c r="F41" t="n">
-        <v>4.36</v>
+        <v>23.11</v>
       </c>
       <c r="G41" t="n">
-        <v>4.57</v>
+        <v>23.11</v>
       </c>
       <c r="H41" t="n">
-        <v>212260958</v>
+        <v>1022859456</v>
       </c>
       <c r="I41" t="n">
-        <v>3053814823.84</v>
+        <v>10260963153.19</v>
       </c>
       <c r="J41" t="n">
-        <v>3054207206.4</v>
+        <v>10260963130.08</v>
       </c>
       <c r="K41" t="n">
-        <v>6.803861618041992</v>
+        <v>10.01980018615723</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>7.710843563079834</v>
+        <v>4.331271171569824</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>092502</t>
+          <t>093002</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>房地产开</t>
+          <t>风电设备</t>
         </is>
       </c>
     </row>
@@ -9134,44 +9134,44 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>603269</t>
+          <t>002364</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>海鸥股份</t>
+          <t>中恒电气</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>10.00862789154053</v>
+        <v>10.00788021087646</v>
       </c>
       <c r="F42" t="n">
-        <v>12.75</v>
+        <v>13.96</v>
       </c>
       <c r="G42" t="n">
-        <v>12.75</v>
+        <v>13.96</v>
       </c>
       <c r="H42" t="n">
-        <v>60573593</v>
+        <v>1507849344</v>
       </c>
       <c r="I42" t="n">
-        <v>2811846456.75</v>
+        <v>7791137912.6</v>
       </c>
       <c r="J42" t="n">
-        <v>2811846456.75</v>
+        <v>7867366841.6</v>
       </c>
       <c r="K42" t="n">
-        <v>2.154228210449219</v>
+        <v>19.66123199462891</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>8.11662769317627</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>093917</t>
+          <t>143342</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -9179,12 +9179,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>11/6</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>电源设备</t>
         </is>
       </c>
     </row>
@@ -9197,57 +9197,57 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>000573</t>
+          <t>603269</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>海鸥股份</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.07957553863525</v>
+        <v>10.00862789154053</v>
       </c>
       <c r="F43" t="n">
-        <v>4.15</v>
+        <v>12.75</v>
       </c>
       <c r="G43" t="n">
-        <v>4.15</v>
+        <v>12.75</v>
       </c>
       <c r="H43" t="n">
-        <v>353699488</v>
+        <v>60573593</v>
       </c>
       <c r="I43" t="n">
-        <v>2626803998.85</v>
+        <v>2811846456.75</v>
       </c>
       <c r="J43" t="n">
-        <v>2648864523.2</v>
+        <v>2811846456.75</v>
       </c>
       <c r="K43" t="n">
-        <v>13.4721565246582</v>
+        <v>2.154228210449219</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.122015953063965</v>
+        <v>0</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>092500</t>
+          <t>093917</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>房地产开</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -9260,44 +9260,44 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>600721</t>
+          <t>600983</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>百花医药</t>
+          <t>惠而浦</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-4.285714626312256</v>
+        <v>10.01064968109131</v>
       </c>
       <c r="F44" t="n">
-        <v>6.7</v>
+        <v>10.33</v>
       </c>
       <c r="G44" t="n">
-        <v>7.7</v>
+        <v>10.33</v>
       </c>
       <c r="H44" t="n">
-        <v>246727628</v>
+        <v>293770016</v>
       </c>
       <c r="I44" t="n">
-        <v>2573018654.5</v>
+        <v>7917314870</v>
       </c>
       <c r="J44" t="n">
-        <v>2573018688</v>
+        <v>7917314952.64</v>
       </c>
       <c r="K44" t="n">
-        <v>9.581055641174316</v>
+        <v>3.756279945373535</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>5.285714149475098</v>
+        <v>4.898828506469727</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>094547</t>
+          <t>092502</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -9305,12 +9305,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>医疗服务</t>
+          <t>家电行业</t>
         </is>
       </c>
     </row>
@@ -9386,57 +9386,57 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>605033</t>
+          <t>001202</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>美邦股份</t>
+          <t>炬申股份</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>9.993753433227539</v>
+        <v>10.02554321289062</v>
       </c>
       <c r="F46" t="n">
-        <v>17.61</v>
+        <v>17.23</v>
       </c>
       <c r="G46" t="n">
-        <v>17.61</v>
+        <v>17.23</v>
       </c>
       <c r="H46" t="n">
-        <v>241097673</v>
+        <v>353852560</v>
       </c>
       <c r="I46" t="n">
-        <v>2380872000</v>
+        <v>1558292399.5</v>
       </c>
       <c r="J46" t="n">
-        <v>2380872000</v>
+        <v>2219224000</v>
       </c>
       <c r="K46" t="n">
-        <v>10.50115394592285</v>
+        <v>23.02077674865723</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>13.24172306060791</v>
+        <v>5.938697338104248</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>144211</t>
+          <t>130615</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>农药兽药</t>
+          <t>物流行业</t>
         </is>
       </c>
     </row>
@@ -9449,57 +9449,57 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>002370</t>
+          <t>002184</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>亚太药业</t>
+          <t>海得控制</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.265822768211365</v>
+        <v>10.03215503692627</v>
       </c>
       <c r="F47" t="n">
-        <v>3.2</v>
+        <v>17.11</v>
       </c>
       <c r="G47" t="n">
-        <v>3.48</v>
+        <v>17.11</v>
       </c>
       <c r="H47" t="n">
-        <v>302397632</v>
+        <v>1619153888</v>
       </c>
       <c r="I47" t="n">
-        <v>2331475795.2</v>
+        <v>4107726093.44</v>
       </c>
       <c r="J47" t="n">
-        <v>2331475814.4</v>
+        <v>6021152176.48</v>
       </c>
       <c r="K47" t="n">
-        <v>12.90172004699707</v>
+        <v>40.72768402099609</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>7.911392211914062</v>
+        <v>13.56913185119629</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>093812</t>
+          <t>145015</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -9512,44 +9512,44 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>688022</t>
+          <t>002346</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>瀚川智能</t>
+          <t>柘中股份</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-1.544715404510498</v>
+        <v>10.03683185577393</v>
       </c>
       <c r="F48" t="n">
-        <v>12.11</v>
+        <v>11.95</v>
       </c>
       <c r="G48" t="n">
-        <v>14.76</v>
+        <v>11.95</v>
       </c>
       <c r="H48" t="n">
-        <v>113544012</v>
+        <v>137333821</v>
       </c>
       <c r="I48" t="n">
-        <v>2129886503.64</v>
+        <v>4701129450.3</v>
       </c>
       <c r="J48" t="n">
-        <v>2129886503.64</v>
+        <v>5276826316.799999</v>
       </c>
       <c r="K48" t="n">
-        <v>5.396230697631836</v>
+        <v>2.922813653945923</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>5.691057205200195</v>
+        <v>1.565377593040466</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>103228</t>
+          <t>094833</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -9557,12 +9557,12 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>专用设备</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -9575,44 +9575,44 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>001202</t>
+          <t>002418</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>炬申股份</t>
+          <t>康盛股份</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>10.02554321289062</v>
+        <v>10.07194232940674</v>
       </c>
       <c r="F49" t="n">
-        <v>17.23</v>
+        <v>3.06</v>
       </c>
       <c r="G49" t="n">
-        <v>17.23</v>
+        <v>3.06</v>
       </c>
       <c r="H49" t="n">
-        <v>353852560</v>
+        <v>403158896</v>
       </c>
       <c r="I49" t="n">
-        <v>1558292399.5</v>
+        <v>3477384000</v>
       </c>
       <c r="J49" t="n">
-        <v>2219224000</v>
+        <v>3477384000</v>
       </c>
       <c r="K49" t="n">
-        <v>23.02077674865723</v>
+        <v>11.9450740814209</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>5.938697338104248</v>
+        <v>8.273381233215332</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>130615</t>
+          <t>093839</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>4/3</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>物流行业</t>
+          <t>家电行业</t>
         </is>
       </c>
     </row>
@@ -9638,57 +9638,57 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>603215</t>
+          <t>000573</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>比依股份</t>
+          <t>粤宏远Ａ</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-9.977924346923828</v>
+        <v>10.07957553863525</v>
       </c>
       <c r="F50" t="n">
-        <v>20.39</v>
+        <v>4.15</v>
       </c>
       <c r="G50" t="n">
-        <v>24.92</v>
+        <v>4.15</v>
       </c>
       <c r="H50" t="n">
-        <v>965245536</v>
+        <v>353699488</v>
       </c>
       <c r="I50" t="n">
-        <v>1448353286.7</v>
+        <v>2626803998.85</v>
       </c>
       <c r="J50" t="n">
-        <v>3843686255.61</v>
+        <v>2648864523.2</v>
       </c>
       <c r="K50" t="n">
-        <v>64.55438995361328</v>
+        <v>13.4721565246582</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>14.17218589782715</v>
+        <v>2.122015953063965</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>140602</t>
+          <t>092500</t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>7/4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>家电行业</t>
+          <t>房地产开</t>
         </is>
       </c>
     </row>
